--- a/input/milestones.xlsx
+++ b/input/milestones.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Fejlesztés 10</t>
+  </si>
+  <si>
+    <t>Lórum ipse az egyik [bájos szaborc](https://www.google.com/) geszolé. A pira táca több mint bűnövet pondával szapkolja az eres eperkék és héves nárkátok pakaszát. A temények szerint ez körülbelül kilenc csilladásig hamagja a csúcsos hűségök egy győzését a grásokról. Nem a lúgós ugyan hanem a bohóké - de a deklések vaniával ilyenek. A tisztegekben a dege dozások itt gunyi teteves ganyosságát a pálan köldsélyök izálják. Az idényben 25, 50, vagy 100 dozás redzik meg egyszerre. A bőgő növedemben a süllyesztő csató köző ténájára népes büftetére szültő rugló szeres. Jövesztő: a rejeg és a nyáló rugló csak a fátylan fengő rövetét parfürözi magában, a közővel ülékben nyaliás orom dikót nem.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -488,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/input/milestones.xlsx
+++ b/input/milestones.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">vid</t>
+  </si>
+  <si>
     <t xml:space="preserve">assets/img/fejlesztes-biztonsag.jpg</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fejlesztés 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/vid/coverr-tram-in-plaza-1566800691940.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Fejlesztés 7</t>
@@ -219,18 +225,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,6 +255,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -258,13 +267,13 @@
         <v>2018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,13 +284,13 @@
         <v>2018</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,13 +301,13 @@
         <v>2018</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,13 +318,13 @@
         <v>2018</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,16 +335,16 @@
         <v>2018</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -343,13 +352,16 @@
         <v>2018</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,13 +372,13 @@
         <v>2019</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,13 +389,13 @@
         <v>2019</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,13 +406,13 @@
         <v>2019</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,13 +423,13 @@
         <v>2019</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -444,35 +456,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
